--- a/Covid_19_Dataset_and_References/References/88.xlsx
+++ b/Covid_19_Dataset_and_References/References/88.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="35">
   <si>
     <t>Doi</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>[Atas%Jenny%coreGivesNoEmail%1,  Bandy%Kenneth%coreGivesNoEmail%1,  Bradin%Stuart A.%coreGivesNoEmail%1,  Cadwallender%Bruce A.%coreGivesNoEmail%1,  Cinti%Sandro K.%coreGivesNoEmail%1,  Collins%Curtis D.%coreGivesNoEmail%1,  Goldberg%Janet%coreGivesNoEmail%1,  Holmes%Jennifer G.%coreGivesNoEmail%1,  Kim%Christopher%coreGivesNoEmail%1,  Krupansky%Frank%coreGivesNoEmail%1,  Lozon%Marie M.%coreGivesNoEmail%1,  Rodgers%Phillip E.%coreGivesNoEmail%1,  Shlafer%Jean%coreGivesNoEmail%1,  Wagner%Deborah%coreGivesNoEmail%1,  Wilkerson%William M.%coreGivesNoEmail%1,  Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,   Bandy%Kenneth%coreGivesNoEmail%1,   Bradin%Stuart A.%coreGivesNoEmail%1,   Cadwallender%Bruce A.%coreGivesNoEmail%1,   Cinti%Sandro K.%coreGivesNoEmail%1,   Collins%Curtis D.%coreGivesNoEmail%1,   Goldberg%Janet%coreGivesNoEmail%1,   Holmes%Jennifer G.%coreGivesNoEmail%1,   Kim%Christopher%coreGivesNoEmail%1,   Krupansky%Frank%coreGivesNoEmail%1,   Lozon%Marie M.%coreGivesNoEmail%1,   Rodgers%Phillip E.%coreGivesNoEmail%1,   Shlafer%Jean%coreGivesNoEmail%1,   Wagner%Deborah%coreGivesNoEmail%1,   Wilkerson%William M.%coreGivesNoEmail%1,   Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[ Douglas M.%Fleming%null%2,  Douglas M.%Fleming%null%0]</t>
   </si>
 </sst>
 </file>
@@ -431,6 +443,9 @@
       <c r="H1" t="s">
         <v>17</v>
       </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -446,16 +461,19 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -472,7 +490,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -482,6 +500,9 @@
       </c>
       <c r="H3" t="s">
         <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -509,6 +530,9 @@
       <c r="H4" t="s">
         <v>18</v>
       </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -527,13 +551,16 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/88.xlsx
+++ b/Covid_19_Dataset_and_References/References/88.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="41">
   <si>
     <t>Doi</t>
   </si>
@@ -139,6 +139,24 @@
   </si>
   <si>
     <t>[ Douglas M.%Fleming%null%2,  Douglas M.%Fleming%null%0]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,    Bandy%Kenneth%coreGivesNoEmail%1,    Bradin%Stuart A.%coreGivesNoEmail%1,    Cadwallender%Bruce A.%coreGivesNoEmail%1,    Cinti%Sandro K.%coreGivesNoEmail%1,    Collins%Curtis D.%coreGivesNoEmail%1,    Goldberg%Janet%coreGivesNoEmail%1,    Holmes%Jennifer G.%coreGivesNoEmail%1,    Kim%Christopher%coreGivesNoEmail%1,    Krupansky%Frank%coreGivesNoEmail%1,    Lozon%Marie M.%coreGivesNoEmail%1,    Rodgers%Phillip E.%coreGivesNoEmail%1,    Shlafer%Jean%coreGivesNoEmail%1,    Wagner%Deborah%coreGivesNoEmail%1,    Wilkerson%William M.%coreGivesNoEmail%1,    Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Douglas M.%Fleming%null%1,   Douglas M.%Fleming%null%1]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,     Bandy%Kenneth%coreGivesNoEmail%1,     Bradin%Stuart A.%coreGivesNoEmail%1,     Cadwallender%Bruce A.%coreGivesNoEmail%1,     Cinti%Sandro K.%coreGivesNoEmail%1,     Collins%Curtis D.%coreGivesNoEmail%1,     Goldberg%Janet%coreGivesNoEmail%1,     Holmes%Jennifer G.%coreGivesNoEmail%1,     Kim%Christopher%coreGivesNoEmail%1,     Krupansky%Frank%coreGivesNoEmail%1,     Lozon%Marie M.%coreGivesNoEmail%1,     Rodgers%Phillip E.%coreGivesNoEmail%1,     Shlafer%Jean%coreGivesNoEmail%1,     Wagner%Deborah%coreGivesNoEmail%1,     Wilkerson%William M.%coreGivesNoEmail%1,     Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Douglas M.%Fleming%null%1,    Douglas M.%Fleming%null%1]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,      Bandy%Kenneth%coreGivesNoEmail%1,      Bradin%Stuart A.%coreGivesNoEmail%1,      Cadwallender%Bruce A.%coreGivesNoEmail%1,      Cinti%Sandro K.%coreGivesNoEmail%1,      Collins%Curtis D.%coreGivesNoEmail%1,      Goldberg%Janet%coreGivesNoEmail%1,      Holmes%Jennifer G.%coreGivesNoEmail%1,      Kim%Christopher%coreGivesNoEmail%1,      Krupansky%Frank%coreGivesNoEmail%1,      Lozon%Marie M.%coreGivesNoEmail%1,      Rodgers%Phillip E.%coreGivesNoEmail%1,      Shlafer%Jean%coreGivesNoEmail%1,      Wagner%Deborah%coreGivesNoEmail%1,      Wilkerson%William M.%coreGivesNoEmail%1,      Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Douglas M.%Fleming%null%1,     Douglas M.%Fleming%null%1]</t>
   </si>
 </sst>
 </file>
@@ -461,13 +479,13 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -490,7 +508,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -551,10 +569,10 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>

--- a/Covid_19_Dataset_and_References/References/88.xlsx
+++ b/Covid_19_Dataset_and_References/References/88.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="50">
   <si>
     <t>Doi</t>
   </si>
@@ -157,6 +157,33 @@
   </si>
   <si>
     <t>[ Douglas M.%Fleming%null%1,     Douglas M.%Fleming%null%1]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,       Bandy%Kenneth%coreGivesNoEmail%1,       Bradin%Stuart A.%coreGivesNoEmail%1,       Cadwallender%Bruce A.%coreGivesNoEmail%1,       Cinti%Sandro K.%coreGivesNoEmail%1,       Collins%Curtis D.%coreGivesNoEmail%1,       Goldberg%Janet%coreGivesNoEmail%1,       Holmes%Jennifer G.%coreGivesNoEmail%1,       Kim%Christopher%coreGivesNoEmail%1,       Krupansky%Frank%coreGivesNoEmail%1,       Lozon%Marie M.%coreGivesNoEmail%1,       Rodgers%Phillip E.%coreGivesNoEmail%1,       Shlafer%Jean%coreGivesNoEmail%1,       Wagner%Deborah%coreGivesNoEmail%1,       Wilkerson%William M.%coreGivesNoEmail%1,       Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Douglas M.%Fleming%null%1,      Douglas M.%Fleming%null%1]</t>
+  </si>
+  <si>
+    <t>"Community Health Workers\u2019 Palliative Care Learning Needs and Training: Results from a Partnership between a US University and a Rural Community Organization in Mpumalanga Province, South Africa"</t>
+  </si>
+  <si>
+    <t>[Cathy%Campbell%xref no email%1, Marianne%Baernholdt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,        Bandy%Kenneth%coreGivesNoEmail%1,        Bradin%Stuart A.%coreGivesNoEmail%1,        Cadwallender%Bruce A.%coreGivesNoEmail%1,        Cinti%Sandro K.%coreGivesNoEmail%1,        Collins%Curtis D.%coreGivesNoEmail%1,        Goldberg%Janet%coreGivesNoEmail%1,        Holmes%Jennifer G.%coreGivesNoEmail%1,        Kim%Christopher%coreGivesNoEmail%1,        Krupansky%Frank%coreGivesNoEmail%1,        Lozon%Marie M.%coreGivesNoEmail%1,        Rodgers%Phillip E.%coreGivesNoEmail%1,        Shlafer%Jean%coreGivesNoEmail%1,        Wagner%Deborah%coreGivesNoEmail%1,        Wilkerson%William M.%coreGivesNoEmail%1,        Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Douglas M.%Fleming%null%1,       Douglas M.%Fleming%null%1]</t>
+  </si>
+  <si>
+    <t>[Cathy%Campbell%xref no email%1,  Marianne%Baernholdt%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -479,7 +506,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -508,7 +535,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -531,22 +558,22 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>

--- a/Covid_19_Dataset_and_References/References/88.xlsx
+++ b/Covid_19_Dataset_and_References/References/88.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="56">
   <si>
     <t>Doi</t>
   </si>
@@ -184,6 +184,24 @@
   </si>
   <si>
     <t>[Cathy%Campbell%xref no email%1,  Marianne%Baernholdt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,         Bandy%Kenneth%coreGivesNoEmail%1,         Bradin%Stuart A.%coreGivesNoEmail%1,         Cadwallender%Bruce A.%coreGivesNoEmail%1,         Cinti%Sandro K.%coreGivesNoEmail%1,         Collins%Curtis D.%coreGivesNoEmail%1,         Goldberg%Janet%coreGivesNoEmail%1,         Holmes%Jennifer G.%coreGivesNoEmail%1,         Kim%Christopher%coreGivesNoEmail%1,         Krupansky%Frank%coreGivesNoEmail%1,         Lozon%Marie M.%coreGivesNoEmail%1,         Rodgers%Phillip E.%coreGivesNoEmail%1,         Shlafer%Jean%coreGivesNoEmail%1,         Wagner%Deborah%coreGivesNoEmail%1,         Wilkerson%William M.%coreGivesNoEmail%1,         Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Douglas M.%Fleming%null%1,        Douglas M.%Fleming%null%1]</t>
+  </si>
+  <si>
+    <t>[Cathy%Campbell%xref no email%1,   Marianne%Baernholdt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,          Bandy%Kenneth%coreGivesNoEmail%1,          Bradin%Stuart A.%coreGivesNoEmail%1,          Cadwallender%Bruce A.%coreGivesNoEmail%1,          Cinti%Sandro K.%coreGivesNoEmail%1,          Collins%Curtis D.%coreGivesNoEmail%1,          Goldberg%Janet%coreGivesNoEmail%1,          Holmes%Jennifer G.%coreGivesNoEmail%1,          Kim%Christopher%coreGivesNoEmail%1,          Krupansky%Frank%coreGivesNoEmail%1,          Lozon%Marie M.%coreGivesNoEmail%1,          Rodgers%Phillip E.%coreGivesNoEmail%1,          Shlafer%Jean%coreGivesNoEmail%1,          Wagner%Deborah%coreGivesNoEmail%1,          Wilkerson%William M.%coreGivesNoEmail%1,          Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Douglas M.%Fleming%null%0]</t>
+  </si>
+  <si>
+    <t>[Cathy%Campbell%xref no email%1,    Marianne%Baernholdt%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -506,7 +524,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -535,7 +553,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -564,7 +582,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>

--- a/Covid_19_Dataset_and_References/References/88.xlsx
+++ b/Covid_19_Dataset_and_References/References/88.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="60">
   <si>
     <t>Doi</t>
   </si>
@@ -202,6 +202,18 @@
   </si>
   <si>
     <t>[Cathy%Campbell%xref no email%1,    Marianne%Baernholdt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,           Bandy%Kenneth%coreGivesNoEmail%1,           Bradin%Stuart A.%coreGivesNoEmail%1,           Cadwallender%Bruce A.%coreGivesNoEmail%1,           Cinti%Sandro K.%coreGivesNoEmail%1,           Collins%Curtis D.%coreGivesNoEmail%1,           Goldberg%Janet%coreGivesNoEmail%1,           Holmes%Jennifer G.%coreGivesNoEmail%1,           Kim%Christopher%coreGivesNoEmail%1,           Krupansky%Frank%coreGivesNoEmail%1,           Lozon%Marie M.%coreGivesNoEmail%1,           Rodgers%Phillip E.%coreGivesNoEmail%1,           Shlafer%Jean%coreGivesNoEmail%1,           Wagner%Deborah%coreGivesNoEmail%1,           Wilkerson%William M.%coreGivesNoEmail%1,           Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Cathy%Campbell%xref no email%1,     Marianne%Baernholdt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,            Bandy%Kenneth%coreGivesNoEmail%1,            Bradin%Stuart A.%coreGivesNoEmail%1,            Cadwallender%Bruce A.%coreGivesNoEmail%1,            Cinti%Sandro K.%coreGivesNoEmail%1,            Collins%Curtis D.%coreGivesNoEmail%1,            Goldberg%Janet%coreGivesNoEmail%1,            Holmes%Jennifer G.%coreGivesNoEmail%1,            Kim%Christopher%coreGivesNoEmail%1,            Krupansky%Frank%coreGivesNoEmail%1,            Lozon%Marie M.%coreGivesNoEmail%1,            Rodgers%Phillip E.%coreGivesNoEmail%1,            Shlafer%Jean%coreGivesNoEmail%1,            Wagner%Deborah%coreGivesNoEmail%1,            Wilkerson%William M.%coreGivesNoEmail%1,            Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Cathy%Campbell%xref no email%1,      Marianne%Baernholdt%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -524,7 +536,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -553,7 +565,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -582,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>

--- a/Covid_19_Dataset_and_References/References/88.xlsx
+++ b/Covid_19_Dataset_and_References/References/88.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="62">
   <si>
     <t>Doi</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>[Cathy%Campbell%xref no email%1,      Marianne%Baernholdt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,             Bandy%Kenneth%coreGivesNoEmail%1,             Bradin%Stuart A.%coreGivesNoEmail%1,             Cadwallender%Bruce A.%coreGivesNoEmail%1,             Cinti%Sandro K.%coreGivesNoEmail%1,             Collins%Curtis D.%coreGivesNoEmail%1,             Goldberg%Janet%coreGivesNoEmail%1,             Holmes%Jennifer G.%coreGivesNoEmail%1,             Kim%Christopher%coreGivesNoEmail%1,             Krupansky%Frank%coreGivesNoEmail%1,             Lozon%Marie M.%coreGivesNoEmail%1,             Rodgers%Phillip E.%coreGivesNoEmail%1,             Shlafer%Jean%coreGivesNoEmail%1,             Wagner%Deborah%coreGivesNoEmail%1,             Wilkerson%William M.%coreGivesNoEmail%1,             Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Cathy%Campbell%xref no email%1,       Marianne%Baernholdt%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -536,7 +542,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -594,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>

--- a/Covid_19_Dataset_and_References/References/88.xlsx
+++ b/Covid_19_Dataset_and_References/References/88.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="64">
   <si>
     <t>Doi</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>[Cathy%Campbell%xref no email%1,       Marianne%Baernholdt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,              Bandy%Kenneth%coreGivesNoEmail%1,              Bradin%Stuart A.%coreGivesNoEmail%1,              Cadwallender%Bruce A.%coreGivesNoEmail%1,              Cinti%Sandro K.%coreGivesNoEmail%1,              Collins%Curtis D.%coreGivesNoEmail%1,              Goldberg%Janet%coreGivesNoEmail%1,              Holmes%Jennifer G.%coreGivesNoEmail%1,              Kim%Christopher%coreGivesNoEmail%1,              Krupansky%Frank%coreGivesNoEmail%1,              Lozon%Marie M.%coreGivesNoEmail%1,              Rodgers%Phillip E.%coreGivesNoEmail%1,              Shlafer%Jean%coreGivesNoEmail%1,              Wagner%Deborah%coreGivesNoEmail%1,              Wilkerson%William M.%coreGivesNoEmail%1,              Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Cathy%Campbell%xref no email%1,        Marianne%Baernholdt%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -542,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -600,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>

--- a/Covid_19_Dataset_and_References/References/88.xlsx
+++ b/Covid_19_Dataset_and_References/References/88.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="68">
   <si>
     <t>Doi</t>
   </si>
@@ -226,6 +226,18 @@
   </si>
   <si>
     <t>[Cathy%Campbell%xref no email%1,        Marianne%Baernholdt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,               Bandy%Kenneth%coreGivesNoEmail%1,               Bradin%Stuart A.%coreGivesNoEmail%1,               Cadwallender%Bruce A.%coreGivesNoEmail%1,               Cinti%Sandro K.%coreGivesNoEmail%1,               Collins%Curtis D.%coreGivesNoEmail%1,               Goldberg%Janet%coreGivesNoEmail%1,               Holmes%Jennifer G.%coreGivesNoEmail%1,               Kim%Christopher%coreGivesNoEmail%1,               Krupansky%Frank%coreGivesNoEmail%1,               Lozon%Marie M.%coreGivesNoEmail%1,               Rodgers%Phillip E.%coreGivesNoEmail%1,               Shlafer%Jean%coreGivesNoEmail%1,               Wagner%Deborah%coreGivesNoEmail%1,               Wilkerson%William M.%coreGivesNoEmail%1,               Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Cathy%Campbell%xref no email%1,         Marianne%Baernholdt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,                Bandy%Kenneth%coreGivesNoEmail%1,                Bradin%Stuart A.%coreGivesNoEmail%1,                Cadwallender%Bruce A.%coreGivesNoEmail%1,                Cinti%Sandro K.%coreGivesNoEmail%1,                Collins%Curtis D.%coreGivesNoEmail%1,                Goldberg%Janet%coreGivesNoEmail%1,                Holmes%Jennifer G.%coreGivesNoEmail%1,                Kim%Christopher%coreGivesNoEmail%1,                Krupansky%Frank%coreGivesNoEmail%1,                Lozon%Marie M.%coreGivesNoEmail%1,                Rodgers%Phillip E.%coreGivesNoEmail%1,                Shlafer%Jean%coreGivesNoEmail%1,                Wagner%Deborah%coreGivesNoEmail%1,                Wilkerson%William M.%coreGivesNoEmail%1,                Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Cathy%Campbell%xref no email%1,          Marianne%Baernholdt%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -548,7 +560,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -606,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>

--- a/Covid_19_Dataset_and_References/References/88.xlsx
+++ b/Covid_19_Dataset_and_References/References/88.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="70">
   <si>
     <t>Doi</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>[Cathy%Campbell%xref no email%1,          Marianne%Baernholdt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,                 Bandy%Kenneth%coreGivesNoEmail%1,                 Bradin%Stuart A.%coreGivesNoEmail%1,                 Cadwallender%Bruce A.%coreGivesNoEmail%1,                 Cinti%Sandro K.%coreGivesNoEmail%1,                 Collins%Curtis D.%coreGivesNoEmail%1,                 Goldberg%Janet%coreGivesNoEmail%1,                 Holmes%Jennifer G.%coreGivesNoEmail%1,                 Kim%Christopher%coreGivesNoEmail%1,                 Krupansky%Frank%coreGivesNoEmail%1,                 Lozon%Marie M.%coreGivesNoEmail%1,                 Rodgers%Phillip E.%coreGivesNoEmail%1,                 Shlafer%Jean%coreGivesNoEmail%1,                 Wagner%Deborah%coreGivesNoEmail%1,                 Wilkerson%William M.%coreGivesNoEmail%1,                 Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Cathy%Campbell%xref no email%1,           Marianne%Baernholdt%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -560,7 +566,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -618,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>

--- a/Covid_19_Dataset_and_References/References/88.xlsx
+++ b/Covid_19_Dataset_and_References/References/88.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="73">
   <si>
     <t>Doi</t>
   </si>
@@ -244,6 +244,15 @@
   </si>
   <si>
     <t>[Cathy%Campbell%xref no email%1,           Marianne%Baernholdt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,                  Bandy%Kenneth%coreGivesNoEmail%1,                  Bradin%Stuart A.%coreGivesNoEmail%1,                  Cadwallender%Bruce A.%coreGivesNoEmail%1,                  Cinti%Sandro K.%coreGivesNoEmail%1,                  Collins%Curtis D.%coreGivesNoEmail%1,                  Goldberg%Janet%coreGivesNoEmail%1,                  Holmes%Jennifer G.%coreGivesNoEmail%1,                  Kim%Christopher%coreGivesNoEmail%1,                  Krupansky%Frank%coreGivesNoEmail%1,                  Lozon%Marie M.%coreGivesNoEmail%1,                  Rodgers%Phillip E.%coreGivesNoEmail%1,                  Shlafer%Jean%coreGivesNoEmail%1,                  Wagner%Deborah%coreGivesNoEmail%1,                  Wilkerson%William M.%coreGivesNoEmail%1,                  Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Cathy%Campbell%xref no email%1,            Marianne%Baernholdt%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -566,7 +575,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -578,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -607,7 +616,7 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -624,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -636,7 +645,7 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -665,7 +674,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/88.xlsx
+++ b/Covid_19_Dataset_and_References/References/88.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="75">
   <si>
     <t>Doi</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>[Cathy%Campbell%xref no email%1,            Marianne%Baernholdt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,                   Bandy%Kenneth%coreGivesNoEmail%1,                   Bradin%Stuart A.%coreGivesNoEmail%1,                   Cadwallender%Bruce A.%coreGivesNoEmail%1,                   Cinti%Sandro K.%coreGivesNoEmail%1,                   Collins%Curtis D.%coreGivesNoEmail%1,                   Goldberg%Janet%coreGivesNoEmail%1,                   Holmes%Jennifer G.%coreGivesNoEmail%1,                   Kim%Christopher%coreGivesNoEmail%1,                   Krupansky%Frank%coreGivesNoEmail%1,                   Lozon%Marie M.%coreGivesNoEmail%1,                   Rodgers%Phillip E.%coreGivesNoEmail%1,                   Shlafer%Jean%coreGivesNoEmail%1,                   Wagner%Deborah%coreGivesNoEmail%1,                   Wilkerson%William M.%coreGivesNoEmail%1,                   Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Cathy%Campbell%xref no email%1,             Marianne%Baernholdt%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -575,7 +581,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -633,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>

--- a/Covid_19_Dataset_and_References/References/88.xlsx
+++ b/Covid_19_Dataset_and_References/References/88.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="83">
   <si>
     <t>Doi</t>
   </si>
@@ -259,6 +259,30 @@
   </si>
   <si>
     <t>[Cathy%Campbell%xref no email%1,             Marianne%Baernholdt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,                    Bandy%Kenneth%coreGivesNoEmail%1,                    Bradin%Stuart A.%coreGivesNoEmail%1,                    Cadwallender%Bruce A.%coreGivesNoEmail%1,                    Cinti%Sandro K.%coreGivesNoEmail%1,                    Collins%Curtis D.%coreGivesNoEmail%1,                    Goldberg%Janet%coreGivesNoEmail%1,                    Holmes%Jennifer G.%coreGivesNoEmail%1,                    Kim%Christopher%coreGivesNoEmail%1,                    Krupansky%Frank%coreGivesNoEmail%1,                    Lozon%Marie M.%coreGivesNoEmail%1,                    Rodgers%Phillip E.%coreGivesNoEmail%1,                    Shlafer%Jean%coreGivesNoEmail%1,                    Wagner%Deborah%coreGivesNoEmail%1,                    Wilkerson%William M.%coreGivesNoEmail%1,                    Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Cathy%Campbell%xref no email%0, Marianne%Baernholdt%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Project MUSE</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,                     Bandy%Kenneth%coreGivesNoEmail%1,                     Bradin%Stuart A.%coreGivesNoEmail%1,                     Cadwallender%Bruce A.%coreGivesNoEmail%1,                     Cinti%Sandro K.%coreGivesNoEmail%1,                     Collins%Curtis D.%coreGivesNoEmail%1,                     Goldberg%Janet%coreGivesNoEmail%1,                     Holmes%Jennifer G.%coreGivesNoEmail%1,                     Kim%Christopher%coreGivesNoEmail%1,                     Krupansky%Frank%coreGivesNoEmail%1,                     Lozon%Marie M.%coreGivesNoEmail%1,                     Rodgers%Phillip E.%coreGivesNoEmail%1,                     Shlafer%Jean%coreGivesNoEmail%1,                     Wagner%Deborah%coreGivesNoEmail%1,                     Wilkerson%William M.%coreGivesNoEmail%1,                     Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,                      Bandy%Kenneth%coreGivesNoEmail%1,                      Bradin%Stuart A.%coreGivesNoEmail%1,                      Cadwallender%Bruce A.%coreGivesNoEmail%1,                      Cinti%Sandro K.%coreGivesNoEmail%1,                      Collins%Curtis D.%coreGivesNoEmail%1,                      Goldberg%Janet%coreGivesNoEmail%1,                      Holmes%Jennifer G.%coreGivesNoEmail%1,                      Kim%Christopher%coreGivesNoEmail%1,                      Krupansky%Frank%coreGivesNoEmail%1,                      Lozon%Marie M.%coreGivesNoEmail%1,                      Rodgers%Phillip E.%coreGivesNoEmail%1,                      Shlafer%Jean%coreGivesNoEmail%1,                      Wagner%Deborah%coreGivesNoEmail%1,                      Wilkerson%William M.%coreGivesNoEmail%1,                      Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,                       Bandy%Kenneth%coreGivesNoEmail%1,                       Bradin%Stuart A.%coreGivesNoEmail%1,                       Cadwallender%Bruce A.%coreGivesNoEmail%1,                       Cinti%Sandro K.%coreGivesNoEmail%1,                       Collins%Curtis D.%coreGivesNoEmail%1,                       Goldberg%Janet%coreGivesNoEmail%1,                       Holmes%Jennifer G.%coreGivesNoEmail%1,                       Kim%Christopher%coreGivesNoEmail%1,                       Krupansky%Frank%coreGivesNoEmail%1,                       Lozon%Marie M.%coreGivesNoEmail%1,                       Rodgers%Phillip E.%coreGivesNoEmail%1,                       Shlafer%Jean%coreGivesNoEmail%1,                       Wagner%Deborah%coreGivesNoEmail%1,                       Wilkerson%William M.%coreGivesNoEmail%1,                       Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,                        Bandy%Kenneth%coreGivesNoEmail%1,                        Bradin%Stuart A.%coreGivesNoEmail%1,                        Cadwallender%Bruce A.%coreGivesNoEmail%1,                        Cinti%Sandro K.%coreGivesNoEmail%1,                        Collins%Curtis D.%coreGivesNoEmail%1,                        Goldberg%Janet%coreGivesNoEmail%1,                        Holmes%Jennifer G.%coreGivesNoEmail%1,                        Kim%Christopher%coreGivesNoEmail%1,                        Krupansky%Frank%coreGivesNoEmail%1,                        Lozon%Marie M.%coreGivesNoEmail%1,                        Rodgers%Phillip E.%coreGivesNoEmail%1,                        Shlafer%Jean%coreGivesNoEmail%1,                        Wagner%Deborah%coreGivesNoEmail%1,                        Wilkerson%William M.%coreGivesNoEmail%1,                        Wright%Carrie M.%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -566,6 +590,9 @@
       <c r="I1" t="s">
         <v>31</v>
       </c>
+      <c r="J1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -581,7 +608,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -594,6 +621,9 @@
       </c>
       <c r="I2" t="s">
         <v>71</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -624,6 +654,9 @@
       <c r="I3" t="s">
         <v>71</v>
       </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -639,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -651,7 +684,10 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -681,6 +717,9 @@
       </c>
       <c r="I5" t="s">
         <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/88.xlsx
+++ b/Covid_19_Dataset_and_References/References/88.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="85">
   <si>
     <t>Doi</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>[Atas%Jenny%coreGivesNoEmail%1,                        Bandy%Kenneth%coreGivesNoEmail%1,                        Bradin%Stuart A.%coreGivesNoEmail%1,                        Cadwallender%Bruce A.%coreGivesNoEmail%1,                        Cinti%Sandro K.%coreGivesNoEmail%1,                        Collins%Curtis D.%coreGivesNoEmail%1,                        Goldberg%Janet%coreGivesNoEmail%1,                        Holmes%Jennifer G.%coreGivesNoEmail%1,                        Kim%Christopher%coreGivesNoEmail%1,                        Krupansky%Frank%coreGivesNoEmail%1,                        Lozon%Marie M.%coreGivesNoEmail%1,                        Rodgers%Phillip E.%coreGivesNoEmail%1,                        Shlafer%Jean%coreGivesNoEmail%1,                        Wagner%Deborah%coreGivesNoEmail%1,                        Wilkerson%William M.%coreGivesNoEmail%1,                        Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,                         Bandy%Kenneth%coreGivesNoEmail%1,                         Bradin%Stuart A.%coreGivesNoEmail%1,                         Cadwallender%Bruce A.%coreGivesNoEmail%1,                         Cinti%Sandro K.%coreGivesNoEmail%1,                         Collins%Curtis D.%coreGivesNoEmail%1,                         Goldberg%Janet%coreGivesNoEmail%1,                         Holmes%Jennifer G.%coreGivesNoEmail%1,                         Kim%Christopher%coreGivesNoEmail%1,                         Krupansky%Frank%coreGivesNoEmail%1,                         Lozon%Marie M.%coreGivesNoEmail%1,                         Rodgers%Phillip E.%coreGivesNoEmail%1,                         Shlafer%Jean%coreGivesNoEmail%1,                         Wagner%Deborah%coreGivesNoEmail%1,                         Wilkerson%William M.%coreGivesNoEmail%1,                         Wright%Carrie M.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Atas%Jenny%coreGivesNoEmail%1,                          Bandy%Kenneth%coreGivesNoEmail%1,                          Bradin%Stuart A.%coreGivesNoEmail%1,                          Cadwallender%Bruce A.%coreGivesNoEmail%1,                          Cinti%Sandro K.%coreGivesNoEmail%1,                          Collins%Curtis D.%coreGivesNoEmail%1,                          Goldberg%Janet%coreGivesNoEmail%1,                          Holmes%Jennifer G.%coreGivesNoEmail%1,                          Kim%Christopher%coreGivesNoEmail%1,                          Krupansky%Frank%coreGivesNoEmail%1,                          Lozon%Marie M.%coreGivesNoEmail%1,                          Rodgers%Phillip E.%coreGivesNoEmail%1,                          Shlafer%Jean%coreGivesNoEmail%1,                          Wagner%Deborah%coreGivesNoEmail%1,                          Wilkerson%William M.%coreGivesNoEmail%1,                          Wright%Carrie M.%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -608,7 +614,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -672,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
